--- a/finance-system/exports/powerbi/articles_detail.xlsx
+++ b/finance-system/exports/powerbi/articles_detail.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,3499 +440,4843 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>transaction_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>merchant</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>magasin</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>article</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>quantite</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>prix_unitaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>prix_total</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>category_main</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>category_sub</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>tags</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>45923</v>
-      </c>
-      <c r="C2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>E.Leclerc</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>LECLERC STATION 24/24</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Billet banques</t>
+          <t>Espace Technique E.Leclerc</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>40.00</t>
-        </is>
+          <t>Mario Kart World Switch 2</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>40</v>
+        <v>69.90000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Loisirs</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Gaming &gt; Jeux</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Switch</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>45933</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>TotalEnergies</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MESSIMY</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DIESEL pompe 02</t>
+          <t>Espace Technique E.Leclerc</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.706</t>
-        </is>
+          <t>Console Switch 2</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>17.13</v>
+        <v>459</v>
+      </c>
+      <c r="I3" t="n">
+        <v>459</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Loisirs</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Gaming &gt; Consoles</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Switch</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>45934</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>TotalEnergies</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RELAIS FONTAINES MARRONNIERS</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>DIESEL pompe 05</t>
+          <t>Espace Technique E.Leclerc</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.599</t>
-        </is>
+          <t>Batterie Ecran 3D Samsung Q S24</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>14.38</v>
+        <v>15.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Protection écran</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>96</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>45933</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>TotalEnergies</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VINAIGRE MEN.SURPUISS 1LT</t>
+          <t>MESSIMY</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
+          <t>DIESEL pompe 02</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>10.04</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
+        <v>1.706</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Carburant &gt; Diesel</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DAUCY.HARIOUT.GARNIE 1/2</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
+          <t>2XL ALUALLE GAZPA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.26</v>
+        <v>6.89</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fruits &amp; Légumes</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Gazpacho</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R. 20 CREPES EMMENTAL</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
+          <t>NOUGAT 3 FRUITS</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>3.29</v>
+        <v>2.49</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>R TARTE AUX 3 FROMAGES 400G</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
+          <t>DOERADO GRISE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4303</v>
       </c>
       <c r="H8" t="n">
-        <v>2.78</v>
+        <v>15.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>article inconnu</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>93</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CORDON BLEU HALAL 2KG</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>13.99</t>
-        </is>
+          <t>FIGUE BARNAGTE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0.5984</v>
       </c>
       <c r="H9" t="n">
-        <v>13.99</v>
+        <v>3.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fruits &amp; Légumes</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Figues,Fruits</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>92</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>TARTE AUX POIREAUX PB 400G</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
+          <t>FIGUE VIOLET RGF</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.48</v>
+        <v>5.99</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fruits &amp; Légumes</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Figues,Fruits</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>R. YT GRECA STRACCIATEL 4X150G</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
+          <t>FLT 1 KG POT SIMP</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.99</v>
+        <v>0.99</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fruits &amp; Légumes</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Patates</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>90</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>R. LAIT 1/2ECR ORIY 1L 2x</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
+          <t>OIGNON ROUGE 500g</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
       </c>
       <c r="H12" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.98</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fruits &amp; Légumes</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Légumes,Oignons</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>89</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BEURRE DOUX PRESIDENT 250G</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
+          <t>PIMENT VERT</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0898</v>
       </c>
       <c r="H13" t="n">
-        <v>2.75</v>
+        <v>4.79</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fruits &amp; Légumes</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Piments</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>88</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>EMMENTAL RAPE PDT 29%MG 200D</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
+          <t>PRUNE JAUNE FR</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.04</v>
+        <v>1.29</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fruits &amp; Légumes</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Prunes,Fruits</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>87</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>RACLETTE CARACTERE 420G</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
+          <t>RAISIN BLANC 500g</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>6.54</v>
+        <v>3.99</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fruits &amp; Légumes</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Fruits,Raisins</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>86</v>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RAEL.CLASSIQ.LAIT RMP 420G</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>5.35</t>
-        </is>
+          <t>JOUVL DEO IN PU RE</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>5.35</v>
+        <v>3.29</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Déodorant</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>85</v>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BRIQUE AFFINEE 150G</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
+          <t>H&amp;S BASE INT CITR</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.64</v>
+        <v>4.83</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>84</v>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ESSUIE-TOUT BLANC X6</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
+          <t>X24 PH 2 PLTS BLAN</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>4.69</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Mouchoirs</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>83</v>
-      </c>
-      <c r="B19" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>GARN MALINI DETERGENT</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>16.33</t>
-        </is>
+          <t>15 SACS 30L 10gAR</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>16.33</v>
+        <v>3.25</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Sacs Poubelles</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>82</v>
-      </c>
-      <c r="B20" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>POMS JUCE CAROTT/CITRON 75CL</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
+          <t>50 SACS CONGEL 1L</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.68</v>
+        <v>1.45</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Sacs de congélation</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>81</v>
-      </c>
-      <c r="B21" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45944</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Carrefour Market</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>COCA-COLA ORIGINAL 6X1.75L</t>
+          <t>Market RILLIEUX VILLAGE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
+          <t>MANCHE TELESCOPIO</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>14.28</v>
+        <v>6.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Balai</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80</v>
-      </c>
-      <c r="B22" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45942</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BIERE 1664 BLONDE 18X25CL</t>
+          <t>Restaurant McDonald's Vienne DT38</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>11.76</t>
-        </is>
+          <t>Menu McSmart</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>11.76</v>
+        <v>5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Restauration &gt; Fast-food</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>McDo</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>79</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45942</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BIERE 1664 BLANC 6X25CL</t>
+          <t>Restaurant McDonald's Vienne DT38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
+          <t>Menu McSmart+</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>4.71</v>
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Restauration &gt; Fast-food</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>McDo</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>78</v>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45942</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>McDonald's</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PAYS D'OC O.CANBRAS SBLC5</t>
+          <t>Restaurant McDonald's Vienne DT38</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
+          <t>BOFrites Db1Ched</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>14.95</v>
+        <v>1.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Restauration &gt; Fast-food</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Frites Cheddar</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45934</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Espace Technique E.Leclerc</t>
+          <t>TotalEnergies</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Batterie Ecran 3D Samsung Q S24</t>
+          <t>RELAIS FONTAINES MARRONNIERS</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>15.90</t>
-        </is>
+          <t>DIESEL pompe 05</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>8.99</v>
       </c>
       <c r="H25" t="n">
-        <v>15.9</v>
-      </c>
+        <v>1.599</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Carburant &gt; Diesel</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C26" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>E.Leclerc</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Espace Technique E.Leclerc</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Console Switch 2</t>
+          <t>LECLERC STATION 24/24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>459.00</t>
-        </is>
+          <t>Billet banques</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>459</v>
+        <v>40</v>
+      </c>
+      <c r="I26" t="n">
+        <v>40</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Tabac</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>77</v>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ONE CHAT STERIL.BOEUF BLE 3KG</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>13.12</t>
-        </is>
+          <t>action sac à comm. 48x48x17cm bleu/blanc</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>13.12</v>
+        <v>1.19</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Sacs de courses</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>76</v>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MS.CASSOULET 1/2</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
+          <t>bougie parfumée art 10x12.5cm div.cl.</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.9</v>
+        <v>4.79</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Bougies</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>75</v>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SAUP.THON CATALANE 2X1/6</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
+          <t>hotel royal serviette 70x140cm blanc</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.19</v>
+        <v>5.99</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Serviette de bain</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>73</v>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>FREEDENTMIT.MENT.VT.5X10DRA8</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
+          <t>epargo linquettes menage lumineu</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Lingettes,ménage</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>72</v>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>R.BAGUETTES PRE-CUITES 2X150B</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
+          <t>studio home miroir porte 34x94cm</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1.36</v>
+        <v>7.95</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Miroir,Décoration</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>71</v>
-      </c>
-      <c r="B32" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ECOT.COMPOTE POMME 4X100G</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
+          <t>bord go tni150 aff 30x40cm</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>70</v>
-      </c>
-      <c r="B33" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>PASA.PRINS AU LAIT X 10</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
+          <t>audidas deo spray 150ml dynamic pulse</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1.4</v>
+        <v>2.19</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Déodorant</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>69</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MAILL.MOUT.MI-FO DCL</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
+          <t>chaussettes sport lotto noir/3pr 39-46</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1.92</v>
+        <v>2.99</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Habillement</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Vêtements</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Chaussettes</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>BARILLA PENNE RIGATE 500G</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
+          <t>rideau occultant shiny noir260cm</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1.01</v>
+        <v>12.95</v>
+      </c>
+      <c r="I35" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Rideaux</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>R.VINAIGRE BALSAM.MODENE</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
+          <t>protextreme gel coiffure 750ml sweet honey</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1.57</v>
+        <v>2.44</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>66</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>R.JUS CIT URON.SICILE 2X125ML</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
+          <t>tio think deakwity itch b pots</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1.06</v>
+        <v>9.99</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>article inconnu</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>65</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CACAHUETES GRILLEES 450G</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
+          <t>fashion professional shamp 1l keratine</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>3.49</v>
+        <v>2.49</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Shampooing</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>64</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PASA.CROUTONS SOUPE AIL 4x</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
+          <t>parfum de luxe homme 150ml white label</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>3.96</v>
+        <v>5.98</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>63</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NOUL POIV NR GRAIN CLASS</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
+          <t>rideau en microfibre 54x14cm</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>2.95</v>
+        <v>0.92</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Rideaux</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>62</v>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TENDRE BANSETTES CEL.500G</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
+          <t>torche=clou marteau rouge=clou bois</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1.17</v>
+        <v>3.67</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Marteau,boîte à outils</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>61</v>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Centre E.Leclerc Viennedis</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LIEBIG VELOUI.LENS POEL.2X30CL</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
+          <t>chiffon microfibre 4pcs 32x30cm</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>2.27</v>
+        <v>0.99</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Chiffons</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>E.Leclerc</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45938</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Espace Technique E.Leclerc</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mario Kart World Switch 2</t>
+          <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>69.90</t>
-        </is>
+          <t>chanteclair dégraissant 750ml marseille</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>69.90000000000001</v>
+        <v>2.29</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Chanteclair,Dégraissant</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>51</v>
-      </c>
-      <c r="B44" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>fentre anti-buée plun protections sol</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
+          <t>st tropez deo spray st 95lav. tropical</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.65</v>
+        <v>5.59</v>
+      </c>
+      <c r="I44" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>27</v>
-      </c>
-      <c r="B45" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>bougie parfumée art 10x12.5cm div.cl.</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
+          <t>james so l'homne sport multi+blanc 137cm</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>4.79</v>
-      </c>
+        <v>19.99</v>
+      </c>
+      <c r="I45" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>james so l'homne sport multi+blanc 137cm</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>19.99</t>
-        </is>
+          <t>alaskas temp 100gr fruits mer &amp; saumon</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>19.99</v>
+        <v>1.88</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>alaskas temp 100gr fruits mer &amp; saumon</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
+          <t>brinde d'étanchéité 20mm trans</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1.88</v>
+        <v>1.49</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Joint de porte</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>brinde d'étanchéité 20mm trans</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
+          <t>set torchons de luxe 3pcs 50x70cm</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1.49</v>
+        <v>4.49</v>
+      </c>
+      <c r="I48" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Torchons</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>set torchons de luxe 3pcs 50x70cm</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
+          <t>dumil papier sulfurisé 8m</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>4.49</v>
+        <v>0.89</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Papier cuisson,Papier sulfurisé</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>dumil papier sulfurisé 8m</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
+          <t>max en microwaves feuilles jusqu'à 2m</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.89</v>
+        <v>2.59</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>joe film plastique distr. 50mx10cm 2pcs</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
+      <c r="G51" t="n">
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>1.99</v>
       </c>
+      <c r="I51" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Film plastique</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>28</v>
-      </c>
-      <c r="B52" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>hotel royal serviette 70x140cm blanc</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
+          <t>fentre anti-buée plun protections sol</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>5.99</v>
+        <v>0.65</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>plaque stationnement plastique noir</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
+      <c r="G53" t="n">
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0.57</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Parking</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Disque de stationnement</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>film alimentaire 50ml</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
+      <c r="G54" t="n">
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Film plastique</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>domil film chanois naturelle xl 48x33cm</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
+      <c r="G55" t="n">
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>3.99</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Transport</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Entretien</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Torchons</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>domil film chanois naturelle xl 50m</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
+      <c r="G56" t="n">
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>3.38</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Film plastique</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>dumil sachets à curseur 2pcs 1l</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
+      <c r="G57" t="n">
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>1.96</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Sacs de congélation</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" t="n">
+        <v>57</v>
+      </c>
+      <c r="C58" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>ambi pur désodorisant 185ml light citrus</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
+      <c r="G58" t="n">
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>2.77</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Désodorisant</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" t="n">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>microfiber dish blocks 10x10x6.5cm 2pcs</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
+      <c r="G59" t="n">
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>2.16</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" t="n">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>server creanisateur rotin plastique 51</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
+      <c r="G60" t="n">
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>1.64</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" t="n">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2" t="n">
         <v>45938</v>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>4445/ Rillieux-la-Pape</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>giada beauty désodorisant fresh berries</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
+      <c r="G61" t="n">
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>2.33</v>
       </c>
+      <c r="I61" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>42</v>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>61</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>chanteclair dégraissant 750ml marseille</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
+          <t>LIEBIG VELOUI.LENS POEL.2X30CL</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>2.29</v>
+        <v>2.27</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Épicerie &gt; Conserves</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Soupe</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>41</v>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>chiffon microfibre 4pcs 32x30cm</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
+          <t>TENDRE BANSETTES CEL.500G</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.99</v>
+        <v>1.17</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>inconnu</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>40</v>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>63</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>torche=clou marteau rouge=clou bois</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
+          <t>NOUL POIV NR GRAIN CLASS</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>3.67</v>
+        <v>2.95</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Épicerie &gt; Conserves</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>épices,Poivre</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>39</v>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>rideau en microfibre 54x14cm</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
+          <t>PASA.CROUTONS SOUPE AIL 4x</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.92</v>
+        <v>3.96</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Épicerie &gt; Conserves</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Croûtons,Soupe</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>38</v>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>parfum de luxe homme 150ml white label</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
+          <t>CACAHUETES GRILLEES 450G</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>5.98</v>
+        <v>3.49</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Épicerie &gt; Conserves</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Cacahuètes,fruits secs</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>37</v>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>fashion professional shamp 1l keratine</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
+          <t>R.JUS CIT URON.SICILE 2X125ML</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>2.49</v>
+        <v>1.06</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Jus de citron</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>36</v>
-      </c>
-      <c r="B68" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>tio think deakwity itch b pots</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>9.99</t>
-        </is>
+          <t>R.VINAIGRE BALSAM.MODENE</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>9.99</v>
+        <v>1.57</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Vinaigre</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>35</v>
-      </c>
-      <c r="B69" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>protextreme gel coiffure 750ml sweet honey</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
+          <t>BARILLA PENNE RIGATE 500G</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>2.44</v>
+        <v>1.01</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Épicerie &gt; Pâtes &amp; Riz</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Pâtes</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>34</v>
-      </c>
-      <c r="B70" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>69</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>rideau occultant shiny noir260cm</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>12.95</t>
-        </is>
+          <t>MAILL.MOUT.MI-FO DCL</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>12.95</v>
+        <v>1.92</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Moutarde</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>33</v>
-      </c>
-      <c r="B71" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>chaussettes sport lotto noir/3pr 39-46</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
+          <t>PASA.PRINS AU LAIT X 10</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>2.99</v>
+        <v>1.4</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Pains au Lait</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>32</v>
-      </c>
-      <c r="B72" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>audidas deo spray 150ml dynamic pulse</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
+          <t>ECOT.COMPOTE POMME 4X100G</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>2.19</v>
+        <v>1.65</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>compote</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>31</v>
-      </c>
-      <c r="B73" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>72</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>bord go tni150 aff 30x40cm</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
+          <t>R.BAGUETTES PRE-CUITES 2X150B</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1.79</v>
+        <v>1.36</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Pain précuit</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>30</v>
-      </c>
-      <c r="B74" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>studio home miroir porte 34x94cm</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>7.95</t>
-        </is>
+          <t>FREEDENTMIT.MENT.VT.5X10DRA8</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>7.95</v>
+        <v>2.15</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Chewing-gums</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>49</v>
-      </c>
-      <c r="B75" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>74</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>max en microwaves feuilles jusqu'à 2m</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
+          <t>DAUCY.HARIOUT.GARNIE 1/2</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>2.59</v>
+        <v>2.26</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Épicerie &gt; Conserves</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>conserve</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>29</v>
-      </c>
-      <c r="B76" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>75</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>epargo linquettes menage lumineu</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
+          <t>SAUP.THON CATALANE 2X1/6</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>3.96</v>
+        <v>2.19</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Épicerie &gt; Conserves</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Thon</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>26</v>
-      </c>
-      <c r="B77" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>action sac à comm. 48x48x17cm bleu/blanc</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
+          <t>MS.CASSOULET 1/2</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>1.19</v>
+        <v>1.9</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Épicerie &gt; Conserves</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Cassoulet</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>43</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Action</t>
-        </is>
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>77</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4445/ Rillieux-la-Pape</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>st tropez deo spray st 95lav. tropical</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
+          <t>ONE CHAT STERIL.BOEUF BLE 3KG</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>5.59</v>
+        <v>13.12</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Croquettes</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>23</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>45942</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>McDonald's</t>
-        </is>
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>78</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Restaurant McDonald's Vienne DT38</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>BOFrites Db1Ched</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
+          <t>PAYS D'OC O.CANBRAS SBLC5</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>1.5</v>
+        <v>14.95</v>
+      </c>
+      <c r="I79" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Boissons &gt; Alcool</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Vin</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>22</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>45942</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>McDonald's</t>
-        </is>
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Restaurant McDonald's Vienne DT38</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Menu McSmart+</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
+          <t>BIERE 1664 BLANC 6X25CL</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>6</v>
+        <v>4.71</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Boissons &gt; Alcool</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>21</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>45942</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>McDonald's</t>
-        </is>
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Restaurant McDonald's Vienne DT38</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Menu McSmart</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
+          <t>BIERE 1664 BLONDE 18X25CL</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>5</v>
+        <v>11.76</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Boissons &gt; Alcool</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>5</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>81</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2XL ALUALLE GAZPA</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>6.89</t>
-        </is>
+          <t>COCA-COLA ORIGINAL 6X1.75L</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>13.78</v>
-      </c>
+        <v>14.28</v>
+      </c>
+      <c r="I82" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Boissons &gt; Non-alcoolisé</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>20</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>82</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MANCHE TELESCOPIO</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
+          <t>POMS JUCE CAROTT/CITRON 75CL</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>6.4</v>
+        <v>1.68</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Jus</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>19</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>83</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>50 SACS CONGEL 1L</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
+          <t>GARN MALINI DETERGENT</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>2.9</v>
+        <v>16.33</v>
+      </c>
+      <c r="I84" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Lessive</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>18</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>84</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>15 SACS 30L 10gAR</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
+          <t>ESSUIE-TOUT BLANC X6</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>6.5</v>
+        <v>3.7</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Essuie-Tout</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>17</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>85</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>X24 PH 2 PLTS BLAN</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
+          <t>BRIQUE AFFINEE 150G</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>4.69</v>
+        <v>2.64</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Fromage</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>16</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>H&amp;S BASE INT CITR</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
+          <t>RAEL.CLASSIQ.LAIT RMP 420G</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>9.66</v>
+        <v>5.35</v>
+      </c>
+      <c r="I87" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>raclette</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>15</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>87</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>JOUVL DEO IN PU RE</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
+          <t>RACLETTE CARACTERE 420G</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>3.29</v>
+        <v>6.54</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>raclette</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>14</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>88</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>RAISIN BLANC 500g</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
+          <t>EMMENTAL RAPE PDT 29%MG 200D</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>3.99</v>
+        <v>2.04</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Fromage râpé</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>13</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>89</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>PRUNE JAUNE FR</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
+          <t>BEURRE DOUX PRESIDENT 250G</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>2.58</v>
+        <v>2.75</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Beurre</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>12</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PIMENT VERT</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>0.0898</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
+          <t>R. LAIT 1/2ECR ORIY 1L 2x</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.43</v>
+        <v>1.98</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Lait</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>11</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>91</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>OIGNON ROUGE 500g</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
+          <t>R. YT GRECA STRACCIATEL 4X150G</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1.98</v>
+        <v>2.99</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Frais &gt; Fromage</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Yaourts,Stracciatella</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>92</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>FLT 1 KG POT SIMP</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
+          <t>TARTE AUX POIREAUX PB 400G</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.99</v>
+        <v>3.48</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Surgelés</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Plat surgelé,tarte aux poireaux</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>93</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>FIGUE VIOLET RGF</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
+          <t>CORDON BLEU HALAL 2KG</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>5.99</v>
-      </c>
+        <v>13.99</v>
+      </c>
+      <c r="I94" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Frais &gt; Viande</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>94</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>FIGUE BARNAGTE</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>0.5984</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
+          <t>R TARTE AUX 3 FROMAGES 400G</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>2.23</v>
+        <v>2.78</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Surgelés</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Plat surgelé,tarte au fromage</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>NOUGAT 3 FRUITS</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
+          <t>R. 20 CREPES EMMENTAL</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>2.49</v>
+        <v>3.29</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Surgelés</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>crêpes surgelés</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>7</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>45944</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Carrefour Market</t>
-        </is>
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>96</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45937</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Market RILLIEUX VILLAGE</t>
+          <t>E.Leclerc</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>DOERADO GRISE</t>
+          <t>Centre E.Leclerc Viennedis</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>0.4303</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>15.50</t>
-        </is>
+          <t>VINAIGRE MEN.SURPUISS 1LT</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>6.67</v>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Logement</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Vinaigre blanc</t>
+        </is>
       </c>
     </row>
   </sheetData>
